--- a/Datos/sobrevivencia Datos Mod.xlsx
+++ b/Datos/sobrevivencia Datos Mod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniela\Documents\Tarea_DL_DBT845\Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Dropbox/CURSOS/POSTGRADO/DBT_845_INVESTIGACION_REPRODUCIBLE/2022/Tarea_Daniela/Tarea_DL_DBT845/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8C0126-5160-45BA-A3A2-D313E8736756}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F584CB0-247C-F64E-A98F-9F1F2DA9CA80}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{FF266C58-0D20-47B6-9589-2C861CCFAEE8}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22760" windowHeight="13200" activeTab="1" xr2:uid="{FF266C58-0D20-47B6-9589-2C861CCFAEE8}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -18,16 +18,14 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Especifico!$A$1:$E$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">General!$A$1:$E$53</definedName>
+  </definedNames>
   <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -189,6 +187,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -564,15 +563,15 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -592,7 +591,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -606,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -620,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -634,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -648,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -662,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -676,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -690,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -704,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -718,7 +717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -732,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -746,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -760,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -774,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -791,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -808,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -825,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -842,7 +841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -859,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -876,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -893,7 +892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -910,7 +909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -927,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -944,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -961,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -978,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -995,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1012,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1046,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1148,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -1182,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -1199,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -1216,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>1</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>3</v>
       </c>
@@ -1284,7 +1283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1352,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1369,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1386,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1403,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -1420,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -1438,6 +1437,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E53" xr:uid="{0809B44D-88C3-6045-9AD3-53101695B9D4}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1448,15 +1448,15 @@
   <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+      <selection activeCell="D16" sqref="D16:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>1</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>3</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>1</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>3</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>0</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>1</v>
       </c>
@@ -2637,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>2</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>3</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>4</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>5</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>7</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>8</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>9</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>10</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>0</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>1</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>2</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>3</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>4</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>5</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>6</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>7</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>8</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>9</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>10</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>11</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>12</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>0</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>1</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>2</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>3</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>4</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>5</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>6</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>7</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>8</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>9</v>
       </c>
@@ -3162,6 +3162,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E105" xr:uid="{D6008004-1F5D-2842-A41C-053A7543AA42}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3175,15 +3176,15 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
       <c r="C2" s="3"/>
@@ -3193,7 +3194,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="1"/>
       <c r="C3" s="3"/>
@@ -3203,7 +3204,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="1"/>
       <c r="C4" s="3"/>
@@ -3213,7 +3214,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
@@ -3223,7 +3224,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
@@ -3233,7 +3234,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
@@ -3243,7 +3244,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
@@ -3253,7 +3254,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
@@ -3263,7 +3264,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="1"/>
       <c r="C10" s="3"/>
@@ -3273,7 +3274,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
       <c r="C11" s="3"/>
@@ -3283,7 +3284,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
@@ -3293,7 +3294,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
@@ -3303,7 +3304,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
@@ -3313,7 +3314,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
@@ -3323,7 +3324,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
@@ -3333,7 +3334,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
@@ -3343,7 +3344,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
@@ -3353,7 +3354,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
@@ -3363,7 +3364,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="1"/>
       <c r="C20" s="3"/>
@@ -3373,7 +3374,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="1"/>
       <c r="C21" s="3"/>
@@ -3383,7 +3384,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="1"/>
       <c r="C22" s="3"/>
@@ -3393,7 +3394,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
@@ -3403,7 +3404,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="1"/>
       <c r="C24" s="3"/>
@@ -3413,7 +3414,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="1"/>
       <c r="C25" s="3"/>
@@ -3423,7 +3424,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1"/>
       <c r="C26" s="3"/>
@@ -3433,7 +3434,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
@@ -3443,7 +3444,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
@@ -3453,7 +3454,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="1"/>
       <c r="C29" s="3"/>
@@ -3463,7 +3464,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="1"/>
       <c r="C30" s="3"/>
@@ -3473,7 +3474,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3"/>
@@ -3483,7 +3484,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="1"/>
       <c r="C32" s="3"/>
@@ -3493,7 +3494,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
@@ -3503,7 +3504,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
@@ -3513,7 +3514,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="1"/>
       <c r="C35" s="3"/>
@@ -3523,7 +3524,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
       <c r="C36" s="3"/>
@@ -3533,7 +3534,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="1"/>
       <c r="C37" s="3"/>
@@ -3543,7 +3544,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="1"/>
       <c r="C38" s="3"/>
@@ -3553,7 +3554,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
@@ -3563,7 +3564,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
@@ -3573,7 +3574,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="1"/>
       <c r="C41" s="3"/>
@@ -3583,7 +3584,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
@@ -3593,7 +3594,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
@@ -3603,7 +3604,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="1"/>
       <c r="C44" s="3"/>
@@ -3613,7 +3614,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="1"/>
       <c r="C45" s="3"/>
@@ -3623,7 +3624,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="1"/>
       <c r="C46" s="3"/>
@@ -3633,7 +3634,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="1"/>
       <c r="C47" s="3"/>
@@ -3643,7 +3644,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="1"/>
       <c r="C48" s="3"/>
@@ -3653,7 +3654,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="1"/>
       <c r="C49" s="3"/>
@@ -3663,7 +3664,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="1"/>
       <c r="C50" s="3"/>
@@ -3673,7 +3674,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3683,7 +3684,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -3693,7 +3694,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -3703,7 +3704,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -3713,7 +3714,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -3723,7 +3724,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -3733,7 +3734,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -3754,7 +3755,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
